--- a/mereni_MD/Prumery/Vysledny_vzorec.xlsx
+++ b/mereni_MD/Prumery/Vysledny_vzorec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\Prumery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarekDarsaU\Documents\Škola\5.Semester\Projekt-5\mereni_MD\Prumery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324F8A0D-BE85-4DF4-BA72-C3741F4F4695}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDC6FB9-2509-4ACF-B90B-5B6E59ACA6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,20 +445,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:I9"/>
+  <dimension ref="B3:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" ht="16.2" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -478,7 +478,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -500,8 +500,15 @@
       <c r="I4">
         <v>0.99878332999999997</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <f>$C$4*M4+$D$4</f>
+        <v>816.16840000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>0</v>
       </c>
@@ -523,8 +530,15 @@
       <c r="I5">
         <v>0.99850000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>20</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ref="N5:N33" si="0">$C$9*M5+$D$9</f>
+        <v>983.10015010000006</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>2</v>
       </c>
@@ -546,68 +560,306 @@
       <c r="I6">
         <v>0.99586666700000004</v>
       </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M6">
+        <v>30</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>1186.3593251</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="M7">
+        <v>40</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>1389.6185000999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <f ca="1">AVERAGE(C$8:C$16)</f>
         <v>16.173500000000001</v>
       </c>
       <c r="D8">
-        <f ca="1">AVERAGE(D$8:D$16)</f>
-        <v>584.61666666666667</v>
+        <v>584.61666700000001</v>
       </c>
       <c r="E8">
-        <f ca="1">AVERAGE(E$8:E$16)</f>
         <v>0.99960000000000004</v>
       </c>
       <c r="G8">
-        <f ca="1">AVERAGE(G$8:G$16)</f>
-        <v>2.6440333333333332</v>
+        <v>2.64</v>
       </c>
       <c r="H8">
-        <f ca="1">AVERAGE(H$8:H$16)</f>
-        <v>1.3979333333333333</v>
+        <v>1.3979333300000001</v>
       </c>
       <c r="I8">
-        <f ca="1">AVERAGE(I$8:I$16)</f>
-        <v>0.99943333333333328</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+        <v>0.99943333300000003</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>1592.8776751</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
-        <f ca="1">AVERAGE(C$4:C$8)</f>
-        <v>21.710056666666663</v>
+        <f>AVERAGE(C$4:C$8)</f>
+        <v>20.325917499999999</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:I9" ca="1" si="0">AVERAGE(D$4:D$8)</f>
-        <v>573.90351113333338</v>
+        <f>AVERAGE(D$4:D$8)</f>
+        <v>576.58180010000001</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99837222200000009</v>
+        <f>AVERAGE(E$4:E$8)</f>
+        <v>0.9986791665000001</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.4270000011000001</v>
+        <f>AVERAGE(G$4:G$8)</f>
+        <v>3.2302500008250004</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.1033888900000002</v>
+        <f>AVERAGE(H$4:H$8)</f>
+        <v>-1.9780583350000003</v>
       </c>
       <c r="I9">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.99771666566666672</v>
+        <f>AVERAGE(I$4:I$8)</f>
+        <v>0.99814583250000011</v>
+      </c>
+      <c r="M9">
+        <v>60</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>1796.1368500999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M10">
+        <v>70</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>1999.3960250999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M11">
+        <v>80</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>2202.6552001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M12">
+        <v>90</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>2405.9143751000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M13">
+        <v>100</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>2609.1735500999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M14">
+        <v>110</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="0"/>
+        <v>2812.4327250999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M15">
+        <v>120</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="0"/>
+        <v>3015.6919000999997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M16">
+        <v>130</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="0"/>
+        <v>3218.9510750999998</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M17">
+        <v>140</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="0"/>
+        <v>3422.2102500999999</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M18">
+        <v>150</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="0"/>
+        <v>3625.4694251000001</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M19">
+        <v>160</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>3828.7286001000002</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M20">
+        <v>170</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="0"/>
+        <v>4031.9877750999995</v>
+      </c>
+    </row>
+    <row r="21" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M21">
+        <v>180</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="0"/>
+        <v>4235.2469500999996</v>
+      </c>
+    </row>
+    <row r="22" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M22">
+        <v>190</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="0"/>
+        <v>4438.5061250999997</v>
+      </c>
+    </row>
+    <row r="23" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M23">
+        <v>200</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="0"/>
+        <v>4641.7653000999999</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>210</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>4845.0244751</v>
+      </c>
+    </row>
+    <row r="25" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M25">
+        <v>220</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>5048.2836500999992</v>
+      </c>
+    </row>
+    <row r="26" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M26">
+        <v>230</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>5251.5428250999994</v>
+      </c>
+    </row>
+    <row r="27" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M27">
+        <v>240</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="0"/>
+        <v>5454.8020000999995</v>
+      </c>
+    </row>
+    <row r="28" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M28">
+        <v>250</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="0"/>
+        <v>5658.0611750999997</v>
+      </c>
+    </row>
+    <row r="29" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M29">
+        <v>260</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="0"/>
+        <v>5861.3203500999998</v>
+      </c>
+    </row>
+    <row r="30" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>270</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="0"/>
+        <v>6064.5795251</v>
+      </c>
+    </row>
+    <row r="31" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>280</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="0"/>
+        <v>6267.8387000999992</v>
+      </c>
+    </row>
+    <row r="32" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>290</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="0"/>
+        <v>6471.0978750999993</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>300</v>
+      </c>
+      <c r="N33">
+        <f t="shared" si="0"/>
+        <v>6674.3570500999995</v>
       </c>
     </row>
   </sheetData>

--- a/mereni_MD/Prumery/Vysledny_vzorec.xlsx
+++ b/mereni_MD/Prumery/Vysledny_vzorec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarekDarsaU\Documents\Škola\5.Semester\Projekt-5\mereni_MD\Prumery\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarekU\Programing\Projekt-5\mereni_MD\Prumery\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDC6FB9-2509-4ACF-B90B-5B6E59ACA6C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E35E265-D8BE-4AD4-9F75-D33403176D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31005" yWindow="2250" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -445,20 +445,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:N33"/>
+  <dimension ref="B3:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="7" width="11" customWidth="1"/>
-    <col min="8" max="8" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="17.25" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>5</v>
       </c>
@@ -478,12 +478,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>23.865169999999999</v>
+        <v>2.386517</v>
       </c>
       <c r="D4">
         <v>577.51670000000001</v>
@@ -492,7 +492,7 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="G4">
-        <v>3.8744000000000001</v>
+        <v>0.38744000000000001</v>
       </c>
       <c r="H4">
         <v>-2.5647000000000002</v>
@@ -505,15 +505,19 @@
       </c>
       <c r="N4">
         <f>$C$4*M4+$D$4</f>
-        <v>816.16840000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.3">
+        <v>601.38187000000005</v>
+      </c>
+      <c r="O4">
+        <f>$G$4*M4+$H$4</f>
+        <v>1.3096999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5">
-        <v>22.9055</v>
+        <v>2.2905500000000001</v>
       </c>
       <c r="D5">
         <v>572.35166670000001</v>
@@ -522,7 +526,7 @@
         <v>0.99928333300000005</v>
       </c>
       <c r="G5">
-        <v>3.6835166699999999</v>
+        <v>0.36835166699999999</v>
       </c>
       <c r="H5">
         <v>-2.9516</v>
@@ -535,15 +539,19 @@
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N33" si="0">$C$9*M5+$D$9</f>
-        <v>983.10015010000006</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.3">
+        <v>617.23363510000001</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O33" si="1">$G$4*M5+$H$4</f>
+        <v>5.1840999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>18.359500000000001</v>
+        <v>1.83595</v>
       </c>
       <c r="D6">
         <v>571.84216670000001</v>
@@ -552,7 +560,7 @@
         <v>0.99623333300000005</v>
       </c>
       <c r="G6">
-        <v>2.7230833333</v>
+        <v>0.27230833332999999</v>
       </c>
       <c r="H6">
         <v>-3.7938666699999999</v>
@@ -565,10 +573,14 @@
       </c>
       <c r="N6">
         <f t="shared" si="0"/>
-        <v>1186.3593251</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
+        <v>637.55955259999996</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>9.0585000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>3</v>
       </c>
@@ -577,15 +589,19 @@
       </c>
       <c r="N7">
         <f t="shared" si="0"/>
-        <v>1389.6185000999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.3">
+        <v>657.88547010000002</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>12.9329</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8">
-        <v>16.173500000000001</v>
+        <v>1.6173500000000001</v>
       </c>
       <c r="D8">
         <v>584.61666700000001</v>
@@ -594,7 +610,7 @@
         <v>0.99960000000000004</v>
       </c>
       <c r="G8">
-        <v>2.64</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="H8">
         <v>1.3979333300000001</v>
@@ -607,16 +623,20 @@
       </c>
       <c r="N8">
         <f t="shared" si="0"/>
-        <v>1592.8776751</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
+        <v>678.21138759999997</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>16.807299999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>11</v>
       </c>
       <c r="C9">
         <f>AVERAGE(C$4:C$8)</f>
-        <v>20.325917499999999</v>
+        <v>2.0325917499999999</v>
       </c>
       <c r="D9">
         <f>AVERAGE(D$4:D$8)</f>
@@ -628,7 +648,7 @@
       </c>
       <c r="G9">
         <f>AVERAGE(G$4:G$8)</f>
-        <v>3.2302500008250004</v>
+        <v>0.32302500008250001</v>
       </c>
       <c r="H9">
         <f>AVERAGE(H$4:H$8)</f>
@@ -643,223 +663,323 @@
       </c>
       <c r="N9">
         <f t="shared" si="0"/>
-        <v>1796.1368500999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
+        <v>698.53730510000003</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>20.681699999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M10">
         <v>70</v>
       </c>
       <c r="N10">
         <f t="shared" si="0"/>
-        <v>1999.3960250999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
+        <v>718.86322259999997</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>24.556100000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M11">
         <v>80</v>
       </c>
       <c r="N11">
         <f t="shared" si="0"/>
-        <v>2202.6552001</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
+        <v>739.18914010000003</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>28.430500000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M12">
         <v>90</v>
       </c>
       <c r="N12">
         <f t="shared" si="0"/>
-        <v>2405.9143751000001</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
+        <v>759.51505759999998</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>32.304899999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M13">
         <v>100</v>
       </c>
       <c r="N13">
         <f t="shared" si="0"/>
-        <v>2609.1735500999998</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
+        <v>779.84097510000004</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>36.179299999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M14">
         <v>110</v>
       </c>
       <c r="N14">
         <f t="shared" si="0"/>
-        <v>2812.4327250999995</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
+        <v>800.16689259999998</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>40.053699999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M15">
         <v>120</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>3015.6919000999997</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
+        <v>820.49281010000004</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>43.928100000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
       <c r="M16">
         <v>130</v>
       </c>
       <c r="N16">
         <f t="shared" si="0"/>
-        <v>3218.9510750999998</v>
-      </c>
-    </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.3">
+        <v>840.81872759999999</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>47.802500000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M17">
         <v>140</v>
       </c>
       <c r="N17">
         <f t="shared" si="0"/>
-        <v>3422.2102500999999</v>
-      </c>
-    </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.3">
+        <v>861.14464509999993</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>51.676899999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M18">
         <v>150</v>
       </c>
       <c r="N18">
         <f t="shared" si="0"/>
-        <v>3625.4694251000001</v>
-      </c>
-    </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.3">
+        <v>881.47056259999999</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>55.551299999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M19">
         <v>160</v>
       </c>
       <c r="N19">
         <f t="shared" si="0"/>
-        <v>3828.7286001000002</v>
-      </c>
-    </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.3">
+        <v>901.79648010000005</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>59.425699999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M20">
         <v>170</v>
       </c>
       <c r="N20">
         <f t="shared" si="0"/>
-        <v>4031.9877750999995</v>
-      </c>
-    </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.3">
+        <v>922.1223976</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>63.3001</v>
+      </c>
+    </row>
+    <row r="21" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M21">
         <v>180</v>
       </c>
       <c r="N21">
         <f t="shared" si="0"/>
-        <v>4235.2469500999996</v>
-      </c>
-    </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.3">
+        <v>942.44831509999995</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>67.174499999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M22">
         <v>190</v>
       </c>
       <c r="N22">
         <f t="shared" si="0"/>
-        <v>4438.5061250999997</v>
-      </c>
-    </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.3">
+        <v>962.7742326</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>71.048900000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M23">
         <v>200</v>
       </c>
       <c r="N23">
         <f t="shared" si="0"/>
-        <v>4641.7653000999999</v>
-      </c>
-    </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.3">
+        <v>983.10015010000006</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>74.923299999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M24">
         <v>210</v>
       </c>
       <c r="N24">
         <f t="shared" si="0"/>
-        <v>4845.0244751</v>
-      </c>
-    </row>
-    <row r="25" spans="13:14" x14ac:dyDescent="0.3">
+        <v>1003.4260676</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>78.797700000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M25">
         <v>220</v>
       </c>
       <c r="N25">
         <f t="shared" si="0"/>
-        <v>5048.2836500999992</v>
-      </c>
-    </row>
-    <row r="26" spans="13:14" x14ac:dyDescent="0.3">
+        <v>1023.7519851</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>82.6721</v>
+      </c>
+    </row>
+    <row r="26" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M26">
         <v>230</v>
       </c>
       <c r="N26">
         <f t="shared" si="0"/>
-        <v>5251.5428250999994</v>
-      </c>
-    </row>
-    <row r="27" spans="13:14" x14ac:dyDescent="0.3">
+        <v>1044.0779026</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>86.546499999999995</v>
+      </c>
+    </row>
+    <row r="27" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M27">
         <v>240</v>
       </c>
       <c r="N27">
         <f t="shared" si="0"/>
-        <v>5454.8020000999995</v>
-      </c>
-    </row>
-    <row r="28" spans="13:14" x14ac:dyDescent="0.3">
+        <v>1064.4038200999998</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>90.420900000000003</v>
+      </c>
+    </row>
+    <row r="28" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M28">
         <v>250</v>
       </c>
       <c r="N28">
         <f t="shared" si="0"/>
-        <v>5658.0611750999997</v>
-      </c>
-    </row>
-    <row r="29" spans="13:14" x14ac:dyDescent="0.3">
+        <v>1084.7297375999999</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>94.295299999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M29">
         <v>260</v>
       </c>
       <c r="N29">
         <f t="shared" si="0"/>
-        <v>5861.3203500999998</v>
-      </c>
-    </row>
-    <row r="30" spans="13:14" x14ac:dyDescent="0.3">
+        <v>1105.0556551</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>98.169700000000006</v>
+      </c>
+    </row>
+    <row r="30" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M30">
         <v>270</v>
       </c>
       <c r="N30">
         <f t="shared" si="0"/>
-        <v>6064.5795251</v>
-      </c>
-    </row>
-    <row r="31" spans="13:14" x14ac:dyDescent="0.3">
+        <v>1125.3815726</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>102.0441</v>
+      </c>
+    </row>
+    <row r="31" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M31">
         <v>280</v>
       </c>
       <c r="N31">
         <f t="shared" si="0"/>
-        <v>6267.8387000999992</v>
-      </c>
-    </row>
-    <row r="32" spans="13:14" x14ac:dyDescent="0.3">
+        <v>1145.7074901000001</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>105.91849999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M32">
         <v>290</v>
       </c>
       <c r="N32">
         <f t="shared" si="0"/>
-        <v>6471.0978750999993</v>
-      </c>
-    </row>
-    <row r="33" spans="13:14" x14ac:dyDescent="0.3">
+        <v>1166.0334075999999</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>109.7929</v>
+      </c>
+    </row>
+    <row r="33" spans="13:15" x14ac:dyDescent="0.25">
       <c r="M33">
         <v>300</v>
       </c>
       <c r="N33">
         <f t="shared" si="0"/>
-        <v>6674.3570500999995</v>
+        <v>1186.3593251</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>113.6673</v>
       </c>
     </row>
   </sheetData>
